--- a/Reliability_Row_data/static/src/modelfiles/LeaveInfo.xlsx
+++ b/Reliability_Row_data/static/src/modelfiles/LeaveInfo.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BB3CB5-88FD-4507-80CD-854218C83204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8010"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -120,15 +121,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-404]General"/>
+    <numFmt numFmtId="176" formatCode="[$-404]General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -136,7 +137,7 @@
       <i/>
       <sz val="12"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -160,8 +161,23 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -177,6 +193,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="12"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,14 +273,14 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -267,18 +289,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="176" fontId="5" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般_Sheet1" xfId="2"/>
-    <cellStyle name="說明文字" xfId="1" builtinId="53"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="解释性文本" xfId="1" builtinId="53"/>
+    <cellStyle name="一般_Sheet1" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -286,12 +311,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -333,7 +361,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -366,9 +394,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -401,6 +446,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -576,16 +638,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" ht="28.2">
+    <row r="1" spans="1:25" ht="25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -602,67 +664,67 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>25</v>
       </c>
@@ -678,68 +740,30 @@
       <c r="E2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="4">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0</v>
-      </c>
-      <c r="I2" s="4">
-        <v>0</v>
-      </c>
-      <c r="J2" s="4">
-        <v>0</v>
-      </c>
-      <c r="K2" s="4">
-        <v>0</v>
-      </c>
-      <c r="L2" s="4">
-        <v>0</v>
-      </c>
-      <c r="M2" s="4">
-        <v>0</v>
-      </c>
-      <c r="N2" s="4">
+      <c r="F2" s="6">
         <v>1</v>
       </c>
-      <c r="O2" s="4">
-        <v>0</v>
-      </c>
-      <c r="P2" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="4">
-        <v>0</v>
-      </c>
-      <c r="R2" s="4">
-        <v>0</v>
-      </c>
-      <c r="S2" s="4">
-        <v>0</v>
-      </c>
-      <c r="T2" s="4">
-        <v>0</v>
-      </c>
-      <c r="U2" s="4">
-        <v>0</v>
-      </c>
-      <c r="V2" s="4">
-        <v>0</v>
-      </c>
-      <c r="W2" s="4">
-        <v>0</v>
-      </c>
-      <c r="X2" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="6">
-        <v>1</v>
-      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>30</v>
       </c>
@@ -755,70 +779,33 @@
       <c r="E3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
+      <c r="F3" s="6">
         <v>8</v>
       </c>
-      <c r="I3" s="4">
-        <v>0</v>
-      </c>
-      <c r="J3" s="4">
-        <v>0</v>
-      </c>
-      <c r="K3" s="4">
-        <v>0</v>
-      </c>
-      <c r="L3" s="4">
-        <v>0</v>
-      </c>
-      <c r="M3" s="4">
-        <v>0</v>
-      </c>
-      <c r="N3" s="4">
-        <v>0</v>
-      </c>
-      <c r="O3" s="4">
-        <v>0</v>
-      </c>
-      <c r="P3" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>0</v>
-      </c>
-      <c r="R3" s="4">
-        <v>0</v>
-      </c>
-      <c r="S3" s="4">
-        <v>0</v>
-      </c>
-      <c r="T3" s="4">
-        <v>0</v>
-      </c>
-      <c r="U3" s="4">
-        <v>0</v>
-      </c>
-      <c r="V3" s="4">
-        <v>0</v>
-      </c>
-      <c r="W3" s="4">
-        <v>0</v>
-      </c>
-      <c r="X3" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="6">
-        <v>8</v>
-      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12"</formula1>
     </dataValidation>
   </dataValidations>
@@ -827,25 +814,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>